--- a/PCB/BOM_HackPod.xlsx
+++ b/PCB/BOM_HackPod.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="127">
   <si>
     <t>No.</t>
   </si>
@@ -160,7 +160,7 @@
     <t>NCD0603Y2</t>
   </si>
   <si>
-    <t>LED1</t>
+    <t>LED1,STAT</t>
   </si>
   <si>
     <t>LED0603-RD</t>
@@ -247,6 +247,33 @@
     <t>12</t>
   </si>
   <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>200K</t>
+  </si>
+  <si>
+    <t>R_BB</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>100K</t>
+  </si>
+  <si>
+    <t>R_BT</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
     <t>SK13D07VG4</t>
   </si>
   <si>
@@ -259,7 +286,7 @@
     <t>C2681581</t>
   </si>
   <si>
-    <t>13</t>
+    <t>16</t>
   </si>
   <si>
     <t>TS-1088-AR02016</t>
@@ -274,7 +301,7 @@
     <t>C720477</t>
   </si>
   <si>
-    <t>14</t>
+    <t>17</t>
   </si>
   <si>
     <t>ESP32-S3R8</t>
@@ -292,7 +319,7 @@
     <t>C2913194</t>
   </si>
   <si>
-    <t>15</t>
+    <t>18</t>
   </si>
   <si>
     <t>TP4057</t>
@@ -310,7 +337,7 @@
     <t>C725791</t>
   </si>
   <si>
-    <t>16</t>
+    <t>19</t>
   </si>
   <si>
     <t>PCM5100APWR</t>
@@ -328,7 +355,7 @@
     <t>C131154</t>
   </si>
   <si>
-    <t>17</t>
+    <t>20</t>
   </si>
   <si>
     <t>TYPE-C-31-M-12</t>
@@ -346,7 +373,7 @@
     <t>C165948</t>
   </si>
   <si>
-    <t>18</t>
+    <t>21</t>
   </si>
   <si>
     <t>40MHz</t>
@@ -741,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -979,7 +1006,7 @@
         <v>47</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>48</v>
@@ -1148,115 +1175,115 @@
         <v>79</v>
       </c>
       <c r="E13" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" t="s">
         <v>82</v>
       </c>
-      <c r="B14">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" t="s">
-        <v>84</v>
-      </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="J14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
       <c r="H15" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="J15" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="D16" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E16" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s">
         <v>17</v>
@@ -1264,31 +1291,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="F17" t="s">
         <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s">
-        <v>103</v>
+        <v>39</v>
       </c>
       <c r="I17" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="J17" t="s">
         <v>17</v>
@@ -1296,31 +1323,31 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B18">
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
         <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="I18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
         <v>17</v>
@@ -1328,38 +1355,134 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
       <c r="C19" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G19" t="s">
+        <v>103</v>
+      </c>
+      <c r="H19" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
+      </c>
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" t="s">
+        <v>109</v>
+      </c>
+      <c r="H20" t="s">
         <v>112</v>
       </c>
-      <c r="D19" t="s">
+      <c r="I20" t="s">
         <v>113</v>
       </c>
-      <c r="E19" t="s">
+      <c r="J20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>114</v>
       </c>
-      <c r="F19" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
         <v>115</v>
       </c>
-      <c r="H19" t="s">
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="I19" t="s">
+      <c r="E21" t="s">
         <v>117</v>
       </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="F21" t="s">
+        <v>32</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>118</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>120</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H22" t="s">
+        <v>125</v>
+      </c>
+      <c r="I22" t="s">
+        <v>126</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
